--- a/experience/DQN/DQN_tokoton.xlsx
+++ b/experience/DQN/DQN_tokoton.xlsx
@@ -1,20 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26230"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wagahai/Documents/h28_soturon/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="320" yWindow="860" windowWidth="27760" windowHeight="14720" tabRatio="500"/>
+    <workbookView xWindow="315" yWindow="855" windowWidth="27765" windowHeight="14715" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="tokoton" sheetId="1" r:id="rId1"/>
+    <sheet name="tokoton (2)" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -334,7 +331,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -344,12 +341,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M52"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A53" sqref="A53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1">
@@ -795,6 +792,550 @@
       </c>
       <c r="C52">
         <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M52"/>
+  <sheetViews>
+    <sheetView showRuler="0" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A53" sqref="A53"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <v>2</v>
+      </c>
+      <c r="C1">
+        <v>3</v>
+      </c>
+      <c r="D1">
+        <v>4</v>
+      </c>
+      <c r="E1">
+        <v>5</v>
+      </c>
+      <c r="F1">
+        <v>6</v>
+      </c>
+      <c r="G1">
+        <v>7</v>
+      </c>
+      <c r="H1">
+        <v>8</v>
+      </c>
+      <c r="I1">
+        <v>9</v>
+      </c>
+      <c r="J1">
+        <v>10</v>
+      </c>
+      <c r="K1">
+        <v>11</v>
+      </c>
+      <c r="L1">
+        <v>12</v>
+      </c>
+      <c r="M1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>14</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>16</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>7</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>7</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>6</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>7</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>3</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>14</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A20">
+        <v>9</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <v>11</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A22">
+        <v>4</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A23">
+        <v>7</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A24">
+        <v>4</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A26">
+        <v>6</v>
+      </c>
+      <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A27">
+        <v>10</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A28">
+        <v>11</v>
+      </c>
+      <c r="B28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="1">
+        <v>9</v>
+      </c>
+      <c r="B30" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A31">
+        <v>9</v>
+      </c>
+      <c r="B31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A32">
+        <v>7</v>
+      </c>
+      <c r="B32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A33">
+        <v>8</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A35">
+        <v>8</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A36">
+        <v>7</v>
+      </c>
+      <c r="B36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A37">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A38">
+        <v>6</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A39">
+        <v>11</v>
+      </c>
+      <c r="B39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A40">
+        <v>7</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A41">
+        <v>11</v>
+      </c>
+      <c r="B41">
+        <v>3</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A42">
+        <v>10</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A43">
+        <v>6</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A45">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A46">
+        <v>8</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A47">
+        <v>7</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A48">
+        <v>7</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A49">
+        <v>13</v>
+      </c>
+      <c r="B49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A50">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A51">
+        <v>6</v>
+      </c>
+      <c r="B51">
+        <v>2</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A52">
+        <f>SUM(A2:A51)</f>
+        <v>366</v>
+      </c>
+      <c r="B52">
+        <f t="shared" ref="B52:F52" si="0">SUM(B2:B51)</f>
+        <v>66</v>
+      </c>
+      <c r="C52">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/experience/DQN/DQN_tokoton.xlsx
+++ b/experience/DQN/DQN_tokoton.xlsx
@@ -4,13 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0"/>
   <bookViews>
-    <workbookView xWindow="315" yWindow="855" windowWidth="27765" windowHeight="14715" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="315" yWindow="855" windowWidth="27765" windowHeight="14715" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="tokoton" sheetId="1" r:id="rId1"/>
     <sheet name="tokoton (2)" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet4" sheetId="6" r:id="rId6"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Sheet3!$A$1:$A$106</definedName>
+  </definedNames>
   <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -18,6 +24,19 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>score</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sec</t>
+    <phoneticPr fontId="1"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -331,7 +350,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1286,7 +1305,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -1342,4 +1361,1395 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B51"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>3473</v>
+      </c>
+      <c r="B2">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>9940</v>
+      </c>
+      <c r="B3">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>1248</v>
+      </c>
+      <c r="B4">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>954</v>
+      </c>
+      <c r="B5">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>4129</v>
+      </c>
+      <c r="B6">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>4884</v>
+      </c>
+      <c r="B7">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>658</v>
+      </c>
+      <c r="B8">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>1846</v>
+      </c>
+      <c r="B9">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>2104</v>
+      </c>
+      <c r="B10">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>493</v>
+      </c>
+      <c r="B11">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>7022</v>
+      </c>
+      <c r="B12">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>1529</v>
+      </c>
+      <c r="B13">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>1099</v>
+      </c>
+      <c r="B14">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>8192</v>
+      </c>
+      <c r="B15">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>2315</v>
+      </c>
+      <c r="B16">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>5661</v>
+      </c>
+      <c r="B17">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>546</v>
+      </c>
+      <c r="B18">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>1100</v>
+      </c>
+      <c r="B19">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A20">
+        <v>4846</v>
+      </c>
+      <c r="B20">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <v>3088</v>
+      </c>
+      <c r="B21">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A22">
+        <v>2189</v>
+      </c>
+      <c r="B22">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A23">
+        <v>1774</v>
+      </c>
+      <c r="B23">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A24">
+        <v>991</v>
+      </c>
+      <c r="B24">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A25">
+        <v>545</v>
+      </c>
+      <c r="B25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A26">
+        <v>6964</v>
+      </c>
+      <c r="B26">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A27">
+        <v>5791</v>
+      </c>
+      <c r="B27">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A28">
+        <v>4856</v>
+      </c>
+      <c r="B28">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A29">
+        <v>1227</v>
+      </c>
+      <c r="B29">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A30">
+        <v>4098</v>
+      </c>
+      <c r="B30">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A31">
+        <v>2177</v>
+      </c>
+      <c r="B31">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A32">
+        <v>1774</v>
+      </c>
+      <c r="B32">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A33">
+        <v>4331</v>
+      </c>
+      <c r="B33">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A34">
+        <v>279</v>
+      </c>
+      <c r="B34">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A35">
+        <v>1315</v>
+      </c>
+      <c r="B35">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A36">
+        <v>5389</v>
+      </c>
+      <c r="B36">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A37">
+        <v>1872</v>
+      </c>
+      <c r="B37">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A38">
+        <v>1151</v>
+      </c>
+      <c r="B38">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A39">
+        <v>5479</v>
+      </c>
+      <c r="B39">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A40">
+        <v>1364</v>
+      </c>
+      <c r="B40">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A41">
+        <v>9428</v>
+      </c>
+      <c r="B41">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A42">
+        <v>1828</v>
+      </c>
+      <c r="B42">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A43">
+        <v>1437</v>
+      </c>
+      <c r="B43">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A44">
+        <v>353</v>
+      </c>
+      <c r="B44">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A45">
+        <v>920</v>
+      </c>
+      <c r="B45">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A46">
+        <v>1747</v>
+      </c>
+      <c r="B46">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A47">
+        <v>1221</v>
+      </c>
+      <c r="B47">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A48">
+        <v>1411</v>
+      </c>
+      <c r="B48">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A49">
+        <v>5593</v>
+      </c>
+      <c r="B49">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A50">
+        <v>819</v>
+      </c>
+      <c r="B50">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A51">
+        <v>4490</v>
+      </c>
+      <c r="B51">
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B56"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>8718</v>
+      </c>
+      <c r="B2">
+        <f>A1-A2</f>
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>6808</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:B56" si="0">A2-A3</f>
+        <v>1910</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>5992</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="0"/>
+        <v>816</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>5247</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>745</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>4037</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>2540</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>1497</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>1715</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>825</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>736</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>979</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>8694</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>7949</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>745</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>6479</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>5574</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>905</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>4558</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>3278</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>2288</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="0"/>
+        <v>990</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>774</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="0"/>
+        <v>1514</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>153</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="0"/>
+        <v>621</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A20">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <v>9180</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="0"/>
+        <v>820</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A22">
+        <v>7940</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="0"/>
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A23">
+        <v>6690</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="0"/>
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A24">
+        <v>5816</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="0"/>
+        <v>874</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A25">
+        <v>4685</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="0"/>
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A26">
+        <v>3852</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="0"/>
+        <v>833</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A27">
+        <v>3175</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="0"/>
+        <v>677</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A28">
+        <v>1908</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="0"/>
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A29">
+        <v>497</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="0"/>
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A30">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A31">
+        <v>8335</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="0"/>
+        <v>1665</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A32">
+        <v>7182</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="0"/>
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A33">
+        <v>5951</v>
+      </c>
+      <c r="B33">
+        <f t="shared" si="0"/>
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A34">
+        <v>4630</v>
+      </c>
+      <c r="B34">
+        <f t="shared" si="0"/>
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A35">
+        <v>3447</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="0"/>
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A36">
+        <v>2180</v>
+      </c>
+      <c r="B36">
+        <f t="shared" si="0"/>
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A37">
+        <v>1713</v>
+      </c>
+      <c r="B37">
+        <f t="shared" si="0"/>
+        <v>467</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A38">
+        <v>570</v>
+      </c>
+      <c r="B38">
+        <f t="shared" si="0"/>
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A39">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A40">
+        <v>8583</v>
+      </c>
+      <c r="B40">
+        <f t="shared" si="0"/>
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A41">
+        <v>7507</v>
+      </c>
+      <c r="B41">
+        <f t="shared" si="0"/>
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A42">
+        <v>6502</v>
+      </c>
+      <c r="B42">
+        <f t="shared" si="0"/>
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A43">
+        <v>4998</v>
+      </c>
+      <c r="B43">
+        <f t="shared" si="0"/>
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A44">
+        <v>4065</v>
+      </c>
+      <c r="B44">
+        <f t="shared" si="0"/>
+        <v>933</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A45">
+        <v>2416</v>
+      </c>
+      <c r="B45">
+        <f t="shared" si="0"/>
+        <v>1649</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A46">
+        <v>1026</v>
+      </c>
+      <c r="B46">
+        <f t="shared" si="0"/>
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A47">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A48">
+        <v>8920</v>
+      </c>
+      <c r="B48">
+        <f t="shared" si="0"/>
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A49">
+        <v>8249</v>
+      </c>
+      <c r="B49">
+        <f t="shared" si="0"/>
+        <v>671</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A50">
+        <v>7411</v>
+      </c>
+      <c r="B50">
+        <f t="shared" si="0"/>
+        <v>838</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A51">
+        <v>6463</v>
+      </c>
+      <c r="B51">
+        <f t="shared" si="0"/>
+        <v>948</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A52">
+        <v>5361</v>
+      </c>
+      <c r="B52">
+        <f t="shared" si="0"/>
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A53">
+        <v>4302</v>
+      </c>
+      <c r="B53">
+        <f t="shared" si="0"/>
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A54">
+        <v>2706</v>
+      </c>
+      <c r="B54">
+        <f t="shared" si="0"/>
+        <v>1596</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A55">
+        <v>1948</v>
+      </c>
+      <c r="B55">
+        <f t="shared" si="0"/>
+        <v>758</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A56">
+        <v>770</v>
+      </c>
+      <c r="B56">
+        <f t="shared" si="0"/>
+        <v>1178</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A56:A72">
+    <sortCondition descending="1" ref="A72"/>
+  </sortState>
+  <dataConsolidate/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B50"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B50"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1">
+        <v>1282</v>
+      </c>
+      <c r="B1">
+        <f>A1/16</f>
+        <v>80.125</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>1910</v>
+      </c>
+      <c r="B2">
+        <f t="shared" ref="B2:B50" si="0">A2/16</f>
+        <v>119.375</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>816</v>
+      </c>
+      <c r="B3">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>745</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="0"/>
+        <v>46.5625</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>1210</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>75.625</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>1497</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>93.5625</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>825</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>51.5625</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>979</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>61.1875</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>1306</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>81.625</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>745</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>46.5625</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>1470</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>91.875</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>905</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>56.5625</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>1016</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>63.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>1280</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>990</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>61.875</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>1514</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>94.625</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>621</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="0"/>
+        <v>38.8125</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>820</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="0"/>
+        <v>51.25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>1240</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="0"/>
+        <v>77.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A20">
+        <v>1250</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="0"/>
+        <v>78.125</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <v>874</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="0"/>
+        <v>54.625</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A22">
+        <v>1131</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="0"/>
+        <v>70.6875</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A23">
+        <v>833</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="0"/>
+        <v>52.0625</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A24">
+        <v>677</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="0"/>
+        <v>42.3125</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A25">
+        <v>1267</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="0"/>
+        <v>79.1875</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A26">
+        <v>1411</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="0"/>
+        <v>88.1875</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A27">
+        <v>1665</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="0"/>
+        <v>104.0625</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A28">
+        <v>1153</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="0"/>
+        <v>72.0625</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A29">
+        <v>1231</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="0"/>
+        <v>76.9375</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A30">
+        <v>1321</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="0"/>
+        <v>82.5625</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A31">
+        <v>1183</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="0"/>
+        <v>73.9375</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A32">
+        <v>1267</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="0"/>
+        <v>79.1875</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A33">
+        <v>467</v>
+      </c>
+      <c r="B33">
+        <f t="shared" si="0"/>
+        <v>29.1875</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A34">
+        <v>1143</v>
+      </c>
+      <c r="B34">
+        <f t="shared" si="0"/>
+        <v>71.4375</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A35">
+        <v>1417</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="0"/>
+        <v>88.5625</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A36">
+        <v>1076</v>
+      </c>
+      <c r="B36">
+        <f t="shared" si="0"/>
+        <v>67.25</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A37">
+        <v>1005</v>
+      </c>
+      <c r="B37">
+        <f t="shared" si="0"/>
+        <v>62.8125</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A38">
+        <v>1504</v>
+      </c>
+      <c r="B38">
+        <f t="shared" si="0"/>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A39">
+        <v>933</v>
+      </c>
+      <c r="B39">
+        <f t="shared" si="0"/>
+        <v>58.3125</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A40">
+        <v>1649</v>
+      </c>
+      <c r="B40">
+        <f t="shared" si="0"/>
+        <v>103.0625</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A41">
+        <v>1390</v>
+      </c>
+      <c r="B41">
+        <f t="shared" si="0"/>
+        <v>86.875</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A42">
+        <v>1080</v>
+      </c>
+      <c r="B42">
+        <f t="shared" si="0"/>
+        <v>67.5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A43">
+        <v>671</v>
+      </c>
+      <c r="B43">
+        <f t="shared" si="0"/>
+        <v>41.9375</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A44">
+        <v>838</v>
+      </c>
+      <c r="B44">
+        <f t="shared" si="0"/>
+        <v>52.375</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A45">
+        <v>948</v>
+      </c>
+      <c r="B45">
+        <f t="shared" si="0"/>
+        <v>59.25</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A46">
+        <v>1102</v>
+      </c>
+      <c r="B46">
+        <f t="shared" si="0"/>
+        <v>68.875</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A47">
+        <v>1059</v>
+      </c>
+      <c r="B47">
+        <f t="shared" si="0"/>
+        <v>66.1875</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A48">
+        <v>1596</v>
+      </c>
+      <c r="B48">
+        <f t="shared" si="0"/>
+        <v>99.75</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A49">
+        <v>758</v>
+      </c>
+      <c r="B49">
+        <f t="shared" si="0"/>
+        <v>47.375</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A50">
+        <v>1178</v>
+      </c>
+      <c r="B50">
+        <f t="shared" si="0"/>
+        <v>73.625</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>